--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3123172.845146188</v>
+        <v>3118869.197874806</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8364097.338790981</v>
+        <v>8364097.338790982</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="F2" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="G2" t="n">
-        <v>92.7267998291467</v>
+        <v>83.726038621436</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>120.3448634941089</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>11.60347536211323</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183515</v>
+        <v>20.90078060183512</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,25 +822,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>52.23795296834147</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>66.85008582272675</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176901</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>290.2905114143472</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>290.2905114143472</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2905114143466</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>255.6878824537566</v>
+        <v>12.74220307430065</v>
       </c>
       <c r="H5" t="n">
-        <v>290.2905114143466</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>236.0696336377448</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.2905114143466</v>
+        <v>290.2905114143472</v>
       </c>
     </row>
     <row r="6">
@@ -980,22 +980,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337435</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370911</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790353</v>
+        <v>15.09724236790348</v>
       </c>
       <c r="S6" t="n">
-        <v>54.29543802590663</v>
+        <v>55.67466468989051</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8512500608582</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8424117578468</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340509</v>
+        <v>12.15545075340503</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441977</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.0380733165757</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2563802146393</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>4.981011647920029</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>79.45846316155699</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>293.4668729822808</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>47.70028955731767</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>114.70539891844</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>228.9445298776392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576178</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>45.17596778974989</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,13 +1612,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>60.4657402212419</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>24.83266606353272</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187843</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>83.06560892428082</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2377,10 +2377,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.74735985927992</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>25.7319404949734</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>86.90598908794038</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3435,13 +3435,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3477,22 +3477,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>209.1156873304392</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>251.7801198313576</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>140.1594216201948</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>72.8097849205479</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3979,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4036,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>30.9719158638759</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>167.7243167060844</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.2317925660179</v>
+        <v>588.2168933305585</v>
       </c>
       <c r="C2" t="n">
-        <v>717.0015419180336</v>
+        <v>588.2168933305585</v>
       </c>
       <c r="D2" t="n">
-        <v>474.7712912700492</v>
+        <v>588.2168933305585</v>
       </c>
       <c r="E2" t="n">
-        <v>474.7712912700492</v>
+        <v>345.9866426825738</v>
       </c>
       <c r="F2" t="n">
-        <v>232.5410406220649</v>
+        <v>103.7563920345891</v>
       </c>
       <c r="G2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="H2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470354</v>
+        <v>40.41888584470325</v>
       </c>
       <c r="K2" t="n">
         <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605484</v>
+        <v>262.3106962605486</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859557</v>
+        <v>449.0101090859561</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779376</v>
+        <v>643.3443219779382</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948969</v>
+        <v>813.5133472948976</v>
       </c>
       <c r="P2" t="n">
-        <v>924.247672544423</v>
+        <v>924.2476725444243</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660179</v>
+        <v>959.2317925660193</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660179</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660179</v>
+        <v>803.0167550628474</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660179</v>
+        <v>588.2168933305585</v>
       </c>
       <c r="U2" t="n">
-        <v>959.2317925660179</v>
+        <v>588.2168933305585</v>
       </c>
       <c r="V2" t="n">
-        <v>959.2317925660179</v>
+        <v>588.2168933305585</v>
       </c>
       <c r="W2" t="n">
-        <v>959.2317925660179</v>
+        <v>588.2168933305585</v>
       </c>
       <c r="X2" t="n">
-        <v>959.2317925660179</v>
+        <v>588.2168933305585</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.2317925660179</v>
+        <v>588.2168933305585</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>769.9045559481367</v>
+        <v>354.2927569776514</v>
       </c>
       <c r="C3" t="n">
-        <v>595.4515266670097</v>
+        <v>179.8397276965244</v>
       </c>
       <c r="D3" t="n">
-        <v>446.5171170057585</v>
+        <v>30.90531803527315</v>
       </c>
       <c r="E3" t="n">
-        <v>287.2796620003029</v>
+        <v>30.90531803527315</v>
       </c>
       <c r="F3" t="n">
-        <v>140.7451040271879</v>
+        <v>30.90531803527315</v>
       </c>
       <c r="G3" t="n">
-        <v>19.18463585132036</v>
+        <v>30.90531803527315</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132036</v>
+        <v>30.90531803527315</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467721</v>
+        <v>86.79245551467734</v>
       </c>
       <c r="L3" t="n">
-        <v>224.022053530371</v>
+        <v>224.0220535303712</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849756</v>
+        <v>403.5193898849759</v>
       </c>
       <c r="N3" t="n">
-        <v>602.17613153764</v>
+        <v>602.1761315376405</v>
       </c>
       <c r="O3" t="n">
-        <v>761.6884442064004</v>
+        <v>827.8052238367437</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640411</v>
+        <v>936.4948513640425</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660179</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="R3" t="n">
-        <v>938.1198929682047</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="S3" t="n">
-        <v>938.1198929682047</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="T3" t="n">
-        <v>938.1198929682047</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="U3" t="n">
-        <v>938.1198929682047</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="V3" t="n">
-        <v>938.1198929682047</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="W3" t="n">
-        <v>938.1198929682047</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="X3" t="n">
-        <v>938.1198929682047</v>
+        <v>730.2683927626733</v>
       </c>
       <c r="Y3" t="n">
-        <v>938.1198929682047</v>
+        <v>522.5080939977195</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.7907485922481</v>
+        <v>556.7907485922495</v>
       </c>
       <c r="C4" t="n">
-        <v>387.8545656643412</v>
+        <v>387.8545656643427</v>
       </c>
       <c r="D4" t="n">
-        <v>387.8545656643412</v>
+        <v>237.7379262520069</v>
       </c>
       <c r="E4" t="n">
-        <v>387.8545656643412</v>
+        <v>89.82483266961381</v>
       </c>
       <c r="F4" t="n">
-        <v>240.9646181664308</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="G4" t="n">
-        <v>240.9646181664308</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="H4" t="n">
-        <v>86.70997506619588</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="I4" t="n">
-        <v>19.18463585132036</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="K4" t="n">
-        <v>63.76336012264326</v>
+        <v>120.2325654469302</v>
       </c>
       <c r="L4" t="n">
-        <v>248.5963550234615</v>
+        <v>305.0655603477485</v>
       </c>
       <c r="M4" t="n">
-        <v>453.8659557426993</v>
+        <v>510.3351610669864</v>
       </c>
       <c r="N4" t="n">
-        <v>659.6893205788035</v>
+        <v>716.1585259030905</v>
       </c>
       <c r="O4" t="n">
-        <v>833.7842159674024</v>
+        <v>830.3658965470439</v>
       </c>
       <c r="P4" t="n">
-        <v>959.2317925660179</v>
+        <v>955.8134731456595</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660179</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660179</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660179</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="T4" t="n">
-        <v>959.2317925660179</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="U4" t="n">
-        <v>959.2317925660179</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="V4" t="n">
-        <v>959.2317925660179</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="W4" t="n">
-        <v>959.2317925660179</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="X4" t="n">
-        <v>959.2317925660179</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="Y4" t="n">
-        <v>738.4392134224878</v>
+        <v>738.4392134224893</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>867.9393068550162</v>
+        <v>336.2623926609854</v>
       </c>
       <c r="C5" t="n">
-        <v>867.9393068550162</v>
+        <v>43.03965385861453</v>
       </c>
       <c r="D5" t="n">
-        <v>867.9393068550162</v>
+        <v>43.03965385861453</v>
       </c>
       <c r="E5" t="n">
-        <v>867.9393068550162</v>
+        <v>43.03965385861453</v>
       </c>
       <c r="F5" t="n">
-        <v>574.7165680526459</v>
+        <v>36.09415310941105</v>
       </c>
       <c r="G5" t="n">
-        <v>316.445979715518</v>
+        <v>23.22324091314777</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314773</v>
+        <v>23.22324091314777</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314773</v>
+        <v>23.22324091314777</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382951976</v>
+        <v>59.1367338295197</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444955</v>
+        <v>163.7002683444957</v>
       </c>
       <c r="L5" t="n">
-        <v>330.322340908464</v>
+        <v>330.3223409084642</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162862</v>
+        <v>547.390938716287</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417537042</v>
+        <v>772.5857417537053</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416908</v>
+        <v>971.8955472416924</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171412</v>
+        <v>1107.500854171414</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657386</v>
+        <v>1161.162045657389</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657386</v>
+        <v>1161.162045657389</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657386</v>
+        <v>1161.162045657389</v>
       </c>
       <c r="T5" t="n">
-        <v>1161.162045657386</v>
+        <v>1161.162045657389</v>
       </c>
       <c r="U5" t="n">
-        <v>1161.162045657386</v>
+        <v>1161.162045657389</v>
       </c>
       <c r="V5" t="n">
-        <v>1161.162045657386</v>
+        <v>1161.162045657389</v>
       </c>
       <c r="W5" t="n">
-        <v>1161.162045657386</v>
+        <v>1161.162045657389</v>
       </c>
       <c r="X5" t="n">
-        <v>1161.162045657386</v>
+        <v>922.7078702657273</v>
       </c>
       <c r="Y5" t="n">
-        <v>867.9393068550162</v>
+        <v>629.4851314633563</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>486.8690160533326</v>
+        <v>505.8481348609815</v>
       </c>
       <c r="C6" t="n">
-        <v>312.4159867722057</v>
+        <v>331.3951055798545</v>
       </c>
       <c r="D6" t="n">
-        <v>312.4159867722057</v>
+        <v>182.4606959186033</v>
       </c>
       <c r="E6" t="n">
-        <v>312.4159867722057</v>
+        <v>23.22324091314777</v>
       </c>
       <c r="F6" t="n">
-        <v>165.8814287990907</v>
+        <v>23.22324091314777</v>
       </c>
       <c r="G6" t="n">
-        <v>165.8814287990907</v>
+        <v>23.22324091314777</v>
       </c>
       <c r="H6" t="n">
-        <v>65.87732406840946</v>
+        <v>23.22324091314777</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314773</v>
+        <v>23.22324091314777</v>
       </c>
       <c r="J6" t="n">
-        <v>150.625349292094</v>
+        <v>25.79522430508938</v>
       </c>
       <c r="K6" t="n">
-        <v>233.176103293334</v>
+        <v>108.3459783063296</v>
       </c>
       <c r="L6" t="n">
-        <v>390.4983205989455</v>
+        <v>265.6681956119413</v>
       </c>
       <c r="M6" t="n">
-        <v>593.4427959572579</v>
+        <v>468.6126709702539</v>
       </c>
       <c r="N6" t="n">
-        <v>816.1672526139187</v>
+        <v>691.3371276269148</v>
       </c>
       <c r="O6" t="n">
-        <v>1000.2522317921</v>
+        <v>872.8666975145456</v>
       </c>
       <c r="P6" t="n">
-        <v>1126.612649313227</v>
+        <v>1126.612649313229</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657386</v>
+        <v>1161.162045657389</v>
       </c>
       <c r="R6" t="n">
-        <v>1145.912305891827</v>
+        <v>1145.91230589183</v>
       </c>
       <c r="S6" t="n">
-        <v>1091.068429097982</v>
+        <v>1089.675270851536</v>
       </c>
       <c r="T6" t="n">
-        <v>1091.068429097982</v>
+        <v>1089.675270851536</v>
       </c>
       <c r="U6" t="n">
-        <v>862.9358532789336</v>
+        <v>1089.675270851536</v>
       </c>
       <c r="V6" t="n">
-        <v>862.9358532789336</v>
+        <v>1089.675270851536</v>
       </c>
       <c r="W6" t="n">
-        <v>862.9358532789336</v>
+        <v>1089.675270851536</v>
       </c>
       <c r="X6" t="n">
-        <v>655.0843530734007</v>
+        <v>881.8237706460034</v>
       </c>
       <c r="Y6" t="n">
-        <v>655.0843530734007</v>
+        <v>674.0634718810495</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9653455695919</v>
+        <v>204.4376569253022</v>
       </c>
       <c r="C7" t="n">
-        <v>204.029162641685</v>
+        <v>35.50147399739528</v>
       </c>
       <c r="D7" t="n">
-        <v>204.029162641685</v>
+        <v>35.50147399739528</v>
       </c>
       <c r="E7" t="n">
-        <v>204.029162641685</v>
+        <v>35.50147399739528</v>
       </c>
       <c r="F7" t="n">
-        <v>204.029162641685</v>
+        <v>35.50147399739528</v>
       </c>
       <c r="G7" t="n">
-        <v>35.50147399739529</v>
+        <v>35.50147399739528</v>
       </c>
       <c r="H7" t="n">
-        <v>35.50147399739529</v>
+        <v>35.50147399739528</v>
       </c>
       <c r="I7" t="n">
-        <v>35.50147399739529</v>
+        <v>35.50147399739528</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314773</v>
+        <v>23.22324091314777</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279148</v>
+        <v>133.2846894279149</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993041</v>
+        <v>329.6518852993044</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276992</v>
+        <v>547.0826837276995</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730503</v>
+        <v>764.7780801730507</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967866</v>
+        <v>949.8387182967872</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195908</v>
+        <v>1084.669382195909</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899864</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="R7" t="n">
-        <v>967.6652614208768</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="S7" t="n">
-        <v>967.6652614208768</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="T7" t="n">
-        <v>742.3742782728206</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="U7" t="n">
-        <v>453.2264194701546</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="V7" t="n">
-        <v>453.2264194701546</v>
+        <v>839.8995766939782</v>
       </c>
       <c r="W7" t="n">
-        <v>453.2264194701546</v>
+        <v>834.8682517970893</v>
       </c>
       <c r="X7" t="n">
-        <v>453.2264194701546</v>
+        <v>606.878700899072</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9653455695919</v>
+        <v>386.0861217555419</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1699.061860336089</v>
+        <v>2175.739488336033</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.099343395678</v>
+        <v>1806.776971395622</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>1448.511272788871</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974333</v>
+        <v>1062.723020190627</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>651.7371154010195</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2514.157217736199</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2305.411576342024</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2051.830515606203</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2051.830515606203</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1699.061860336089</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1699.061860336089</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1699.061860336089</v>
+        <v>2562.339328400155</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756909</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310615</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>815.1145481251091</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1178.376567084329</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681275</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460313</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885493</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606424</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="D10" t="n">
         <v>346.0498276483066</v>
@@ -4950,64 +4950,64 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.349301773071</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1124.349301773071</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>893.0922008865666</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X10" t="n">
-        <v>665.1026499885493</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.1026499885493</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>593.6115863900017</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>443.4949469776659</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>443.4949469776659</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>296.6049994797555</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436268</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468469</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962605</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962605</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756498</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876705</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>580.8993044876705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>432.9862109052775</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>286.0962634073672</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>118.9001641222473</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614402</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179101</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756264</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756264</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.841793202178</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756784</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996071</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.972636491139</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797183</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6010,22 +6010,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6056,37 +6056,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257311</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310022</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797183</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>697.5276345711974</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>879.1760994014371</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6700,10 +6700,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>954.2476448606602</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>785.3114619327533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1135.8961096909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,52 +6919,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7125,22 +7125,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2052.880282234721</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1763.805055578919</v>
       </c>
       <c r="V37" t="n">
-        <v>1501.108204237296</v>
+        <v>1509.120567373032</v>
       </c>
       <c r="W37" t="n">
-        <v>1501.108204237296</v>
+        <v>1219.703397336071</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>991.7138464380538</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="38">
@@ -7156,61 +7156,61 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852888</v>
@@ -7241,16 +7241,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7259,22 +7259,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.5007694647277</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>631.5645865368208</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>631.5645865368208</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336515</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438498</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1492342949674</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7417,13 +7417,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.5007694647277</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>631.5645865368208</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>481.447947124485</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>481.447947124485</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>334.5579996265747</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3619003414546</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949674</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168595</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356194</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2210.498878109345</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1990.897413132287</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1701.822186476484</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1447.137698270597</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1157.720528233637</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>929.7309773356194</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>929.7309773356194</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928469</v>
+        <v>6.233205181928426</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>66.78462588923509</v>
       </c>
       <c r="P3" t="n">
-        <v>66.78462588923438</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>49.70416500698908</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8151,13 +8151,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>102.5492171288668</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.89011047839809</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506793</v>
+        <v>54.74236624506781</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2.581221505607033</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>128.6722568460167</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>224.3355197601776</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.160150103916</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>105.0583980710269</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>115.4620467826911</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856545</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101216</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>62.35543909865042</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>181.8372934928149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>61.70948393027197</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>8.289762996849078</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.3575234924703636</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25557,16 +25557,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>6.274541026374379</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>67.48492792567599</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,10 +25836,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>115.4620467826933</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>13.30196929556018</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>735227.7353098536</v>
+        <v>735227.7353098537</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>718452.1540290018</v>
+        <v>718452.1540290017</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>718452.1540290015</v>
+        <v>718452.1540290017</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>718452.1540290018</v>
+        <v>718452.1540290017</v>
       </c>
     </row>
     <row r="12">
@@ -26316,46 +26316,46 @@
         <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312475</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="H2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="J2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800889</v>
+        <v>652246.4444800892</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342210997</v>
+        <v>55881.32342211025</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.886627624</v>
+        <v>363279.8866276231</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353593</v>
+        <v>62744.31078353588</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440483</v>
+        <v>12992.59634440488</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666268</v>
+        <v>88656.3399166624</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431038</v>
+        <v>246054.6603431036</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828188</v>
+        <v>143951.0939828189</v>
       </c>
       <c r="E4" t="n">
+        <v>12996.86414683036</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12996.86414683043</v>
+      </c>
+      <c r="G4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="F4" t="n">
-        <v>12996.86414683044</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12996.86414683054</v>
-      </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26450,16 +26450,16 @@
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.86414683052</v>
+        <v>12996.86414683044</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437328</v>
+        <v>61145.7022343733</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302703</v>
+        <v>65162.40123302708</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-256043.4055892409</v>
+        <v>-256043.4055892412</v>
       </c>
       <c r="C6" t="n">
-        <v>351313.1636330071</v>
+        <v>351313.1636330066</v>
       </c>
       <c r="D6" t="n">
-        <v>118242.7955809599</v>
+        <v>118242.7955809612</v>
       </c>
       <c r="E6" t="n">
-        <v>84648.43913347249</v>
+        <v>84301.0598791152</v>
       </c>
       <c r="F6" t="n">
-        <v>592133.8807580179</v>
+        <v>591786.501503661</v>
       </c>
       <c r="G6" t="n">
-        <v>592133.8807580182</v>
+        <v>591786.501503661</v>
       </c>
       <c r="H6" t="n">
-        <v>592133.880758018</v>
+        <v>591786.501503661</v>
       </c>
       <c r="I6" t="n">
-        <v>592133.8807580177</v>
+        <v>591786.5015036613</v>
       </c>
       <c r="J6" t="n">
-        <v>529389.5699744822</v>
+        <v>529042.1907201253</v>
       </c>
       <c r="K6" t="n">
-        <v>579141.2844136129</v>
+        <v>578793.9051592563</v>
       </c>
       <c r="L6" t="n">
-        <v>503477.5408413552</v>
+        <v>503130.1615869984</v>
       </c>
       <c r="M6" t="n">
-        <v>459526.5870290915</v>
+        <v>459179.2077747343</v>
       </c>
       <c r="N6" t="n">
-        <v>592133.8807580177</v>
+        <v>591786.5015036612</v>
       </c>
       <c r="O6" t="n">
-        <v>592133.8807580179</v>
+        <v>591786.501503661</v>
       </c>
       <c r="P6" t="n">
-        <v>592133.8807580178</v>
+        <v>591786.501503661</v>
       </c>
     </row>
   </sheetData>
@@ -26700,7 +26700,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26718,16 +26718,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.4761003380648</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575582</v>
+        <v>636.9329421575586</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26752,10 +26752,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143466</v>
+        <v>290.2905114143472</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26916,16 +26916,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26937,10 +26937,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-4.531232532047268e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.4761003380648</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949355</v>
+        <v>43.45684181949377</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599813</v>
+        <v>297.1319499599805</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327284213</v>
+        <v>50.48256327284232</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856925</v>
+        <v>350.2943206856917</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284213</v>
+        <v>50.4825632728423</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856925</v>
+        <v>350.2943206856917</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996091</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284213</v>
+        <v>50.48256327284232</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856925</v>
+        <v>350.2943206856917</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>125.4649436295031</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>114.8750934791785</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>142.1224219307569</v>
       </c>
       <c r="F2" t="n">
-        <v>167.068097600207</v>
+        <v>167.0680976002066</v>
       </c>
       <c r="G2" t="n">
-        <v>320.1901041167901</v>
+        <v>329.1908653245008</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1547862223006</v>
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>15.72212017026139</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664346</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4458084395867</v>
+        <v>33.84233307747345</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,25 +27542,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>93.18309505458978</v>
       </c>
       <c r="G4" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>56.41647205669025</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176904</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>92.4433302491334</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>74.98238035666037</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>116.5855343273648</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>157.054320620544</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>22.9612173592252</v>
+        <v>313.2517287735718</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401375</v>
+        <v>111.7608855401374</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>133.6614670407242</v>
       </c>
       <c r="Y5" t="n">
-        <v>95.94742724170698</v>
+        <v>95.94742724170641</v>
       </c>
     </row>
     <row r="6">
@@ -27700,22 +27700,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.00406368337434</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>42.22754232370908</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>91.94045939833441</v>
+        <v>90.56123273435054</v>
       </c>
       <c r="T6" t="n">
         <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
         <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197632</v>
+        <v>120.9099147197631</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>125.6496154441976</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0001972153979</v>
+        <v>204.0001972153978</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>281.541986688671</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>139.1261901905378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>118.0808297906732</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>75.75192584147669</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>33.91007409977233</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28064,22 +28064,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>57.57846845895176</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.096265935172726e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-5.779126741819878e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30699,13 +30699,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.414636683656336e-12</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30756,7 +30756,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -30765,7 +30765,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198248</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055156</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651554</v>
+        <v>91.97984867651557</v>
       </c>
       <c r="J2" t="n">
-        <v>202.49464189374</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779019</v>
+        <v>303.486976877902</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712528</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074821</v>
+        <v>418.9314987074823</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359667</v>
+        <v>425.7102483359669</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822516</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426698</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457574</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810513</v>
+        <v>54.36718245810515</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916533</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840365</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182838</v>
+        <v>43.95082441182839</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847382</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070427</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L3" t="n">
-        <v>277.170135351282</v>
+        <v>277.1701353512821</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842452</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900651</v>
+        <v>332.0050874900652</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947075</v>
+        <v>303.7197925947076</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671572</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607456</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080798</v>
+        <v>79.25705355080801</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784624</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308313</v>
+        <v>5.145325813308315</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897144</v>
+        <v>0.08398246702897147</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888313</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207009</v>
+        <v>9.515075838207013</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784128</v>
+        <v>32.18391704784129</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490373</v>
+        <v>75.66333823490376</v>
       </c>
       <c r="K4" t="n">
         <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889952</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676925</v>
+        <v>167.7591540676926</v>
       </c>
       <c r="N4" t="n">
         <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714136</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>129.4361645720919</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104776</v>
+        <v>89.61489115104779</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937814</v>
+        <v>48.12020970937816</v>
       </c>
       <c r="S4" t="n">
         <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522791</v>
+        <v>4.572684707522793</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.05837469839390808</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834403</v>
+        <v>2.560534440834405</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219533</v>
+        <v>26.22307334219535</v>
       </c>
       <c r="I5" t="n">
-        <v>98.7150040302684</v>
+        <v>98.71500403026847</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977691</v>
+        <v>217.3221599977692</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782894</v>
+        <v>325.7095828782897</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719753</v>
+        <v>404.0715387719757</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341642</v>
+        <v>449.6074431341644</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141849</v>
+        <v>456.8825616141852</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681378</v>
+        <v>431.4212472681381</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600384</v>
+        <v>368.2080532600387</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976563</v>
+        <v>276.5089135976565</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690642</v>
+        <v>160.8431715690643</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051401</v>
+        <v>58.34817857051405</v>
       </c>
       <c r="T5" t="n">
-        <v>11.2087395147526</v>
+        <v>11.20873951475261</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667522</v>
+        <v>0.2048427552667523</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772861</v>
+        <v>1.370006705772862</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312211</v>
+        <v>13.23138055312212</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770597</v>
+        <v>47.169090527706</v>
       </c>
       <c r="J6" t="n">
         <v>129.4355896888299</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756115</v>
+        <v>221.2260389756117</v>
       </c>
       <c r="L6" t="n">
-        <v>297.465710391603</v>
+        <v>297.4657103916032</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758692</v>
+        <v>347.1284534758694</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264249</v>
+        <v>356.3159107264252</v>
       </c>
       <c r="O6" t="n">
-        <v>325.959446351142</v>
+        <v>325.9594463511423</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892054</v>
+        <v>261.6111927892056</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316375</v>
+        <v>174.8801542316376</v>
       </c>
       <c r="R6" t="n">
-        <v>85.0605917847396</v>
+        <v>85.06059178473966</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959677</v>
+        <v>25.44727367959678</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479205</v>
+        <v>5.522088432479209</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663562</v>
+        <v>0.09013202011663569</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.14856760061199</v>
+        <v>1.148567600611991</v>
       </c>
       <c r="H7" t="n">
-        <v>10.21181012180479</v>
+        <v>10.2118101218048</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749513</v>
+        <v>34.54056020749515</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326768</v>
+        <v>81.20372936326774</v>
       </c>
       <c r="K7" t="n">
         <v>133.4426721438294</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400771</v>
+        <v>170.7606776400773</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577504</v>
+        <v>180.0431921577505</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645604</v>
+        <v>175.7621674645605</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846839</v>
+        <v>162.344809584684</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321992</v>
+        <v>138.9140305321993</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579128</v>
+        <v>96.17687426579134</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297183</v>
+        <v>51.64377593297186</v>
       </c>
       <c r="S7" t="n">
-        <v>20.0164008215744</v>
+        <v>20.01640082157441</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705775</v>
+        <v>4.907516111705777</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156316</v>
+        <v>0.06264914185156321</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,25 +31679,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>353.6230700590493</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8531046913773</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437241</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270676</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.11936606475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34140,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.4487373670537</v>
+        <v>21.44873736705378</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292135</v>
+        <v>83.39712583292146</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012656</v>
+        <v>140.7360160012657</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802094</v>
+        <v>188.5852654802096</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393758</v>
+        <v>196.297184739376</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605649</v>
+        <v>171.887904360565</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874002</v>
+        <v>111.8528537874004</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130796</v>
+        <v>35.33749497130808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.2907269326837</v>
+        <v>68.29072693268378</v>
       </c>
       <c r="L3" t="n">
-        <v>138.6157555714078</v>
+        <v>138.6157555714079</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3104407622268</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067318</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O3" t="n">
-        <v>161.123548150263</v>
+        <v>227.9081740394982</v>
       </c>
       <c r="P3" t="n">
-        <v>176.5721284420613</v>
+        <v>109.787502552827</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472408</v>
+        <v>22.96660727472414</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>45.02901441547768</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
         <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295331</v>
+        <v>207.3430310295332</v>
       </c>
       <c r="N4" t="n">
         <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854533</v>
+        <v>115.3609804484377</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369854</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.452847899353401</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108281</v>
+        <v>36.27625547108295</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333089</v>
+        <v>105.6197318333091</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019881</v>
+        <v>168.3051238019884</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068914</v>
+        <v>219.2612099068917</v>
       </c>
       <c r="N5" t="n">
-        <v>227.469498017594</v>
+        <v>227.4694980175943</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464511</v>
+        <v>201.3230358464514</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047689</v>
+        <v>136.9750575047692</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320683</v>
+        <v>54.203223723207</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>128.688998362572</v>
+        <v>2.597963022163242</v>
       </c>
       <c r="K6" t="n">
-        <v>83.38460000125252</v>
+        <v>83.38460000125269</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117288</v>
+        <v>158.9113306117291</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538508</v>
+        <v>204.9944195538511</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430916</v>
+        <v>224.9741986430919</v>
       </c>
       <c r="O6" t="n">
-        <v>185.9444234123046</v>
+        <v>183.3632019066978</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748752</v>
+        <v>256.309042220892</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.89838014561599</v>
+        <v>34.8983801456161</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179465</v>
+        <v>111.1731803179466</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003933</v>
+        <v>198.3507029003934</v>
       </c>
       <c r="M7" t="n">
-        <v>219.627069119591</v>
+        <v>219.6270691195911</v>
       </c>
       <c r="N7" t="n">
-        <v>219.894339843789</v>
+        <v>219.8943398437891</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987235</v>
+        <v>186.9299374987237</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970927</v>
+        <v>136.1925897970928</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.0148310140969</v>
+        <v>10.01483101409696</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0158803980279</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000391</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>191.358233988438</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>211.4890361370309</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>303.8786972770471</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,19 +36044,19 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992796</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410461</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3118869.197874806</v>
+        <v>3120629.728177592</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>218.585976061928</v>
       </c>
       <c r="E2" t="n">
-        <v>239.8079481415049</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>239.8079481415049</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>83.726038621436</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.651863114966</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>239.8079481415049</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11.60347536211323</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183512</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.4767113179853</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>52.23795296834147</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>97.21972497217419</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176901</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.2905114143472</v>
+        <v>290.2905114143456</v>
       </c>
       <c r="C5" t="n">
-        <v>290.2905114143472</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>236.0696336377435</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>290.2905114143456</v>
       </c>
       <c r="X5" t="n">
-        <v>236.0696336377448</v>
+        <v>290.2905114143456</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.2905114143472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,13 +977,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>64.07498175579855</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790348</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>55.67466468989051</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340503</v>
+        <v>12.15545075340519</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>36.60192815242361</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>4.981011647920029</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>293.4668729822808</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>196.6997841156786</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>114.70539891844</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.98074812542836</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1423,13 +1423,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576178</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>101.6969570046975</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>225.9908369016797</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>26.70391688093298</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571659</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2374,13 +2374,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>209.1156873304392</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>34.45703212904674</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>30.9719158638759</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>588.2168933305585</v>
+        <v>502.2016801857458</v>
       </c>
       <c r="C2" t="n">
-        <v>588.2168933305585</v>
+        <v>259.9714295377611</v>
       </c>
       <c r="D2" t="n">
-        <v>588.2168933305585</v>
+        <v>39.17751432369235</v>
       </c>
       <c r="E2" t="n">
-        <v>345.9866426825738</v>
+        <v>39.17751432369235</v>
       </c>
       <c r="F2" t="n">
-        <v>103.7563920345891</v>
+        <v>32.23201357448887</v>
       </c>
       <c r="G2" t="n">
         <v>19.18463585132039</v>
@@ -4357,25 +4357,25 @@
         <v>959.2317925660194</v>
       </c>
       <c r="S2" t="n">
-        <v>803.0167550628474</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="T2" t="n">
-        <v>588.2168933305585</v>
+        <v>744.4319308337305</v>
       </c>
       <c r="U2" t="n">
-        <v>588.2168933305585</v>
+        <v>744.4319308337305</v>
       </c>
       <c r="V2" t="n">
-        <v>588.2168933305585</v>
+        <v>744.4319308337305</v>
       </c>
       <c r="W2" t="n">
-        <v>588.2168933305585</v>
+        <v>744.4319308337305</v>
       </c>
       <c r="X2" t="n">
-        <v>588.2168933305585</v>
+        <v>744.4319308337305</v>
       </c>
       <c r="Y2" t="n">
-        <v>588.2168933305585</v>
+        <v>502.2016801857458</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>354.2927569776514</v>
+        <v>324.9566488298909</v>
       </c>
       <c r="C3" t="n">
-        <v>179.8397276965244</v>
+        <v>324.9566488298909</v>
       </c>
       <c r="D3" t="n">
-        <v>30.90531803527315</v>
+        <v>324.9566488298909</v>
       </c>
       <c r="E3" t="n">
-        <v>30.90531803527315</v>
+        <v>165.7191938244354</v>
       </c>
       <c r="F3" t="n">
-        <v>30.90531803527315</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="G3" t="n">
-        <v>30.90531803527315</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="H3" t="n">
-        <v>30.90531803527315</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="I3" t="n">
         <v>19.18463585132039</v>
@@ -4424,37 +4424,37 @@
         <v>602.1761315376405</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367437</v>
+        <v>761.688444206401</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640425</v>
+        <v>870.3780717336997</v>
       </c>
       <c r="Q3" t="n">
         <v>959.2317925660194</v>
       </c>
       <c r="R3" t="n">
-        <v>938.1198929682062</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="S3" t="n">
-        <v>938.1198929682062</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="T3" t="n">
-        <v>938.1198929682062</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="U3" t="n">
-        <v>938.1198929682062</v>
+        <v>740.5684478003777</v>
       </c>
       <c r="V3" t="n">
-        <v>938.1198929682062</v>
+        <v>740.5684478003777</v>
       </c>
       <c r="W3" t="n">
-        <v>938.1198929682062</v>
+        <v>740.5684478003777</v>
       </c>
       <c r="X3" t="n">
-        <v>730.2683927626733</v>
+        <v>532.7169475948449</v>
       </c>
       <c r="Y3" t="n">
-        <v>522.5080939977195</v>
+        <v>324.9566488298909</v>
       </c>
     </row>
     <row r="4">
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.7907485922495</v>
+        <v>731.2422416680021</v>
       </c>
       <c r="C4" t="n">
-        <v>387.8545656643427</v>
+        <v>562.3060587400952</v>
       </c>
       <c r="D4" t="n">
-        <v>237.7379262520069</v>
+        <v>412.1894193277594</v>
       </c>
       <c r="E4" t="n">
-        <v>89.82483266961381</v>
+        <v>264.2763257453663</v>
       </c>
       <c r="F4" t="n">
-        <v>37.05922361068303</v>
+        <v>117.386378247456</v>
       </c>
       <c r="G4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="H4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J4" t="n">
         <v>19.18463585132039</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469302</v>
+        <v>63.76336012264457</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477485</v>
+        <v>248.5963550234629</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669864</v>
+        <v>453.8659557427007</v>
       </c>
       <c r="N4" t="n">
-        <v>716.1585259030905</v>
+        <v>659.689320578805</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470439</v>
+        <v>833.7842159674038</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456595</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="Q4" t="n">
         <v>959.2317925660194</v>
@@ -4530,10 +4530,10 @@
         <v>959.2317925660194</v>
       </c>
       <c r="X4" t="n">
-        <v>959.2317925660194</v>
+        <v>731.2422416680021</v>
       </c>
       <c r="Y4" t="n">
-        <v>738.4392134224893</v>
+        <v>731.2422416680021</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>336.2623926609854</v>
+        <v>43.03965385861441</v>
       </c>
       <c r="C5" t="n">
-        <v>43.03965385861453</v>
+        <v>43.03965385861441</v>
       </c>
       <c r="D5" t="n">
-        <v>43.03965385861453</v>
+        <v>43.03965385861441</v>
       </c>
       <c r="E5" t="n">
-        <v>43.03965385861453</v>
+        <v>43.03965385861441</v>
       </c>
       <c r="F5" t="n">
-        <v>36.09415310941105</v>
+        <v>36.09415310941094</v>
       </c>
       <c r="G5" t="n">
-        <v>23.22324091314777</v>
+        <v>23.22324091314765</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314777</v>
+        <v>23.22324091314765</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314777</v>
+        <v>23.22324091314765</v>
       </c>
       <c r="J5" t="n">
-        <v>59.1367338295197</v>
+        <v>59.13673382951941</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444957</v>
+        <v>163.7002683444948</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084642</v>
+        <v>330.3223409084623</v>
       </c>
       <c r="M5" t="n">
-        <v>547.390938716287</v>
+        <v>547.3909387162842</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417537053</v>
+        <v>772.5857417537015</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416924</v>
+        <v>971.8955472416876</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171414</v>
+        <v>1107.500854171408</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657389</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657389</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657389</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="T5" t="n">
-        <v>1161.162045657389</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="U5" t="n">
-        <v>1161.162045657389</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="V5" t="n">
-        <v>1161.162045657389</v>
+        <v>922.7078702657225</v>
       </c>
       <c r="W5" t="n">
-        <v>1161.162045657389</v>
+        <v>629.4851314633531</v>
       </c>
       <c r="X5" t="n">
-        <v>922.7078702657273</v>
+        <v>336.2623926609838</v>
       </c>
       <c r="Y5" t="n">
-        <v>629.4851314633563</v>
+        <v>336.2623926609838</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>505.8481348609815</v>
+        <v>87.94544470688356</v>
       </c>
       <c r="C6" t="n">
-        <v>331.3951055798545</v>
+        <v>23.22324091314765</v>
       </c>
       <c r="D6" t="n">
-        <v>182.4606959186033</v>
+        <v>23.22324091314765</v>
       </c>
       <c r="E6" t="n">
-        <v>23.22324091314777</v>
+        <v>23.22324091314765</v>
       </c>
       <c r="F6" t="n">
-        <v>23.22324091314777</v>
+        <v>23.22324091314765</v>
       </c>
       <c r="G6" t="n">
-        <v>23.22324091314777</v>
+        <v>23.22324091314765</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314777</v>
+        <v>23.22324091314765</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314777</v>
+        <v>23.22324091314765</v>
       </c>
       <c r="J6" t="n">
-        <v>25.79522430508938</v>
+        <v>25.79522430508901</v>
       </c>
       <c r="K6" t="n">
-        <v>108.3459783063296</v>
+        <v>235.7315125838834</v>
       </c>
       <c r="L6" t="n">
-        <v>265.6681956119413</v>
+        <v>393.0537298894946</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6126709702539</v>
+        <v>595.9982052478065</v>
       </c>
       <c r="N6" t="n">
-        <v>691.3371276269148</v>
+        <v>818.7226619044668</v>
       </c>
       <c r="O6" t="n">
-        <v>872.8666975145456</v>
+        <v>1000.252231792097</v>
       </c>
       <c r="P6" t="n">
-        <v>1126.612649313229</v>
+        <v>1126.612649313223</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657389</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="R6" t="n">
-        <v>1145.91230589183</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="S6" t="n">
-        <v>1089.675270851536</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="T6" t="n">
-        <v>1089.675270851536</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="U6" t="n">
-        <v>1089.675270851536</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="V6" t="n">
-        <v>1089.675270851536</v>
+        <v>926.0099374256399</v>
       </c>
       <c r="W6" t="n">
-        <v>1089.675270851536</v>
+        <v>671.7725806974383</v>
       </c>
       <c r="X6" t="n">
-        <v>881.8237706460034</v>
+        <v>463.9210804919055</v>
       </c>
       <c r="Y6" t="n">
-        <v>674.0634718810495</v>
+        <v>256.1607817269516</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.4376569253022</v>
+        <v>354.1458020540207</v>
       </c>
       <c r="C7" t="n">
-        <v>35.50147399739528</v>
+        <v>354.1458020540207</v>
       </c>
       <c r="D7" t="n">
-        <v>35.50147399739528</v>
+        <v>204.029162641685</v>
       </c>
       <c r="E7" t="n">
-        <v>35.50147399739528</v>
+        <v>204.029162641685</v>
       </c>
       <c r="F7" t="n">
-        <v>35.50147399739528</v>
+        <v>204.029162641685</v>
       </c>
       <c r="G7" t="n">
-        <v>35.50147399739528</v>
+        <v>35.50147399739532</v>
       </c>
       <c r="H7" t="n">
-        <v>35.50147399739528</v>
+        <v>35.50147399739532</v>
       </c>
       <c r="I7" t="n">
-        <v>35.50147399739528</v>
+        <v>35.50147399739532</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314777</v>
+        <v>23.22324091314765</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279149</v>
+        <v>133.2846894279145</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993044</v>
+        <v>329.6518852993037</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276995</v>
+        <v>547.0826837276985</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730507</v>
+        <v>764.7780801730494</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967872</v>
+        <v>949.8387182967855</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195909</v>
+        <v>1084.669382195907</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899865</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899865</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.584064899865</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.584064899865</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="U7" t="n">
-        <v>1094.584064899865</v>
+        <v>1057.612420301455</v>
       </c>
       <c r="V7" t="n">
-        <v>839.8995766939782</v>
+        <v>802.9279320955682</v>
       </c>
       <c r="W7" t="n">
-        <v>834.8682517970893</v>
+        <v>802.9279320955682</v>
       </c>
       <c r="X7" t="n">
-        <v>606.878700899072</v>
+        <v>574.9383811975508</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.0861217555419</v>
+        <v>354.1458020540207</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.739488336033</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.776971395622</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.511272788871</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.723020190627</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>651.7371154010195</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.339328400155</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598622</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C10" t="n">
-        <v>461.9138669598622</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901019</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1816.233211630147</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1561.54872342426</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,22 +5272,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5296,22 +5296,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>267.680263960966</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>120.7903164630557</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5481,7 +5481,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961526</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
         <v>1577.52840832642</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,37 +5746,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -6025,7 +6025,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6080,7 +6080,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6217,16 +6217,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6700,19 +6700,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>810.0653816078141</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>641.1291986799072</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2052.880282234721</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1763.805055578919</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1509.120567373032</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1219.703397336071</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>991.7138464380538</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>991.7138464380538</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7168,43 +7168,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7411,19 +7411,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7502,7 +7502,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,7 +7669,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7785,22 +7785,22 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876688</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>580.8993044876688</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>66.78462588923509</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>66.78462588923516</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>49.70416500699031</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8151,13 +8151,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>102.5492171288668</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>61.89011047839806</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506781</v>
+        <v>54.74236624506813</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>128.6722568460148</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>128.6722568460167</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515151</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>65.5498640939303</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>60.19363748756444</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.8202214113359</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>8.289762996849078</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>115.4620467826933</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>718452.1540290017</v>
+        <v>718452.1540290018</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312475</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287557</v>
-      </c>
-      <c r="F2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287556</v>
@@ -26343,19 +26343,19 @@
         <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>652246.4444800892</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342211025</v>
+        <v>55881.32342210861</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276231</v>
+        <v>363279.8866276249</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>62744.31078353588</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440488</v>
+        <v>12992.59634440449</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.3399166624</v>
+        <v>88656.33991666274</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26420,25 +26420,25 @@
         <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431036</v>
+        <v>246054.660343104</v>
       </c>
       <c r="D4" t="n">
         <v>143951.0939828189</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683036</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683043</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683043</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26472,7 +26472,7 @@
         <v>61145.7022343733</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302708</v>
+        <v>65162.40123302696</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-256043.4055892412</v>
+        <v>-256043.4055892414</v>
       </c>
       <c r="C6" t="n">
-        <v>351313.1636330066</v>
+        <v>351313.1636330081</v>
       </c>
       <c r="D6" t="n">
-        <v>118242.7955809612</v>
+        <v>118242.7955809595</v>
       </c>
       <c r="E6" t="n">
-        <v>84301.0598791152</v>
+        <v>84613.70120803639</v>
       </c>
       <c r="F6" t="n">
-        <v>591786.501503661</v>
+        <v>592099.1428325826</v>
       </c>
       <c r="G6" t="n">
-        <v>591786.501503661</v>
+        <v>592099.1428325827</v>
       </c>
       <c r="H6" t="n">
-        <v>591786.501503661</v>
+        <v>592099.1428325825</v>
       </c>
       <c r="I6" t="n">
-        <v>591786.5015036613</v>
+        <v>592099.1428325825</v>
       </c>
       <c r="J6" t="n">
-        <v>529042.1907201253</v>
+        <v>529354.8320490466</v>
       </c>
       <c r="K6" t="n">
-        <v>578793.9051592563</v>
+        <v>579106.546488178</v>
       </c>
       <c r="L6" t="n">
-        <v>503130.1615869984</v>
+        <v>503442.8029159198</v>
       </c>
       <c r="M6" t="n">
-        <v>459179.2077747343</v>
+        <v>459491.8491036559</v>
       </c>
       <c r="N6" t="n">
-        <v>591786.5015036612</v>
+        <v>592099.1428325822</v>
       </c>
       <c r="O6" t="n">
-        <v>591786.501503661</v>
+        <v>592099.1428325825</v>
       </c>
       <c r="P6" t="n">
-        <v>591786.501503661</v>
+        <v>592099.1428325825</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>593.4761003380648</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575586</v>
+        <v>636.9329421575574</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,22 +26792,22 @@
         <v>239.8079481415049</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143472</v>
+        <v>290.2905114143456</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,25 +26962,25 @@
         <v>593.4761003380648</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949377</v>
+        <v>43.45684181949252</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599805</v>
+        <v>297.131949959982</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>239.8079481415049</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327284232</v>
+        <v>50.48256327284079</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856917</v>
+        <v>350.2943206856931</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>239.8079481415048</v>
       </c>
       <c r="K4" t="n">
-        <v>50.4825632728423</v>
+        <v>50.48256327284079</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856917</v>
+        <v>350.294320685693</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>239.8079481415049</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284232</v>
+        <v>50.48256327284079</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856917</v>
+        <v>350.2943206856931</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>125.4649436295027</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>136.0970655587549</v>
       </c>
       <c r="E2" t="n">
-        <v>142.1224219307569</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>167.0680976002066</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>329.1908653245008</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>146.4299905145487</v>
       </c>
     </row>
     <row r="3">
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0669836643703</v>
@@ -27478,7 +27478,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>33.84233307747345</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183512</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
@@ -27514,7 +27514,7 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>9.380688295960596</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>93.18309505458978</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>69.70105158239625</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -27560,7 +27560,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176901</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.4433302491334</v>
+        <v>92.44333024913493</v>
       </c>
       <c r="C5" t="n">
-        <v>74.98238035666037</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.2517287735718</v>
+        <v>313.2517287735719</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401374</v>
+        <v>111.7608855401376</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157313</v>
+        <v>150.6718910157314</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8871100493787</v>
+        <v>211.8871100493788</v>
       </c>
       <c r="U5" t="n">
         <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>91.68262483239141</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>58.95045730306737</v>
       </c>
       <c r="X5" t="n">
-        <v>133.6614670407242</v>
+        <v>79.44058926412339</v>
       </c>
       <c r="Y5" t="n">
-        <v>95.94742724170641</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,13 +27697,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>108.6335172325172</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337434</v>
+        <v>99.00406368337437</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370908</v>
+        <v>42.22754232370917</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.09724236790365</v>
       </c>
       <c r="S6" t="n">
-        <v>90.56123273435054</v>
+        <v>146.2358974242411</v>
       </c>
       <c r="T6" t="n">
         <v>194.6426402623424</v>
@@ -27754,10 +27754,10 @@
         <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8424117578468</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197631</v>
+        <v>120.9099147197632</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441976</v>
+        <v>125.6496154441977</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0001972153978</v>
+        <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
         <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2563802146393</v>
+        <v>249.6544520622157</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>281.541986688671</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>118.0808297906732</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>9.958400864555188</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>33.91007409977233</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193758</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-5.779126741819878e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834405</v>
+        <v>2.560534440834399</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219535</v>
+        <v>26.2230733421953</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026847</v>
+        <v>98.71500403026829</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977692</v>
+        <v>217.3221599977688</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782897</v>
+        <v>325.709582878289</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719757</v>
+        <v>404.0715387719749</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341644</v>
+        <v>449.6074431341636</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141852</v>
+        <v>456.8825616141843</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681381</v>
+        <v>431.4212472681373</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600387</v>
+        <v>368.208053260038</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976565</v>
+        <v>276.508913597656</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690643</v>
+        <v>160.843171569064</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051405</v>
+        <v>58.34817857051394</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475261</v>
+        <v>11.20873951475259</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667523</v>
+        <v>0.2048427552667519</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772862</v>
+        <v>1.370006705772859</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312212</v>
+        <v>13.23138055312209</v>
       </c>
       <c r="I6" t="n">
-        <v>47.169090527706</v>
+        <v>47.1690905277059</v>
       </c>
       <c r="J6" t="n">
-        <v>129.4355896888299</v>
+        <v>129.4355896888297</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756117</v>
+        <v>221.2260389756112</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916032</v>
+        <v>297.4657103916027</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758694</v>
+        <v>347.1284534758687</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264252</v>
+        <v>356.3159107264245</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511423</v>
+        <v>325.9594463511417</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892056</v>
+        <v>261.6111927892051</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316376</v>
+        <v>174.8801542316373</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473966</v>
+        <v>85.06059178473949</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959678</v>
+        <v>25.44727367959673</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479209</v>
+        <v>5.522088432479198</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663569</v>
+        <v>0.09013202011663551</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611991</v>
+        <v>1.148567600611988</v>
       </c>
       <c r="H7" t="n">
-        <v>10.2118101218048</v>
+        <v>10.21181012180478</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749515</v>
+        <v>34.54056020749508</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326774</v>
+        <v>81.20372936326758</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438294</v>
+        <v>133.4426721438292</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400773</v>
+        <v>170.7606776400769</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577505</v>
+        <v>180.0431921577502</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645605</v>
+        <v>175.7621674645602</v>
       </c>
       <c r="O7" t="n">
-        <v>162.344809584684</v>
+        <v>162.3448095846837</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321993</v>
+        <v>138.914030532199</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579134</v>
+        <v>96.17687426579116</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297186</v>
+        <v>51.64377593297176</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157441</v>
+        <v>20.01640082157438</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705777</v>
+        <v>4.907516111705768</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156321</v>
+        <v>0.06264914185156309</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32019,7 +32019,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043726</v>
@@ -32074,7 +32074,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,13 +32086,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32320,19 +32320,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M18" t="n">
-        <v>353.6230700590493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34792,13 +34792,13 @@
         <v>200.6633754067319</v>
       </c>
       <c r="O3" t="n">
-        <v>227.9081740394982</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P3" t="n">
         <v>109.787502552827</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472414</v>
+        <v>89.7512331639593</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531412</v>
+        <v>45.02901441547897</v>
       </c>
       <c r="L4" t="n">
         <v>186.6999948493114</v>
@@ -34871,13 +34871,13 @@
         <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>115.3609804484377</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
         <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353401</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108295</v>
+        <v>36.27625547108252</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333091</v>
+        <v>105.6197318333084</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019884</v>
+        <v>168.3051238019876</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068917</v>
+        <v>219.2612099068909</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175943</v>
+        <v>227.4694980175934</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464514</v>
+        <v>201.3230358464506</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047692</v>
+        <v>136.9750575047684</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.203223723207</v>
+        <v>54.20322372320649</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.597963022163242</v>
+        <v>2.597963022162986</v>
       </c>
       <c r="K6" t="n">
-        <v>83.38460000125269</v>
+        <v>212.0568568472671</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117291</v>
+        <v>158.9113306117285</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538511</v>
+        <v>204.9944195538504</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430919</v>
+        <v>224.9741986430912</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066978</v>
+        <v>183.3632019066972</v>
       </c>
       <c r="P6" t="n">
-        <v>256.309042220892</v>
+        <v>127.6367853748748</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.8983801456161</v>
+        <v>34.89838014561576</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179466</v>
+        <v>111.1731803179463</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003934</v>
+        <v>198.3507029003931</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195911</v>
+        <v>219.6270691195907</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437891</v>
+        <v>219.8943398437887</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987237</v>
+        <v>186.9299374987233</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970928</v>
+        <v>136.1925897970925</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409696</v>
+        <v>10.01483101409677</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676403</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,13 +35497,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,13 +35734,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M18" t="n">
-        <v>211.4890361370309</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
